--- a/Test Cases Final/TC- 3 Forgot Password.xlsx
+++ b/Test Cases Final/TC- 3 Forgot Password.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D4F2E-87DB-4E83-9C17-9E2F87EDF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BA409-0DA4-473D-91C8-01F1CFA5D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,12 +110,6 @@
     <t>#, @, %, &amp;</t>
   </si>
   <si>
-    <t>TC_Register</t>
-  </si>
-  <si>
-    <t>Testing the Register screen for unexpected behavior</t>
-  </si>
-  <si>
     <t>Enter an integer</t>
   </si>
   <si>
@@ -424,6 +418,12 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>TC_Forgot_Password</t>
+  </si>
+  <si>
+    <t>Testing the Forgot Password screen for unexpected behavior</t>
   </si>
 </sst>
 </file>
@@ -716,6 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,7 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,119 +1134,119 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="23">
+      <c r="C5" s="40"/>
+      <c r="D5" s="24">
         <v>44609</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
@@ -1254,7 +1254,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1297,19 +1297,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>22</v>
@@ -1321,19 +1321,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>22</v>
@@ -1345,19 +1345,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>22</v>
@@ -1369,19 +1369,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -1393,19 +1393,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>22</v>
@@ -1417,19 +1417,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>22</v>
@@ -1444,16 +1444,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>22</v>
@@ -1465,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>22</v>
@@ -1492,16 +1492,16 @@
         <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>22</v>
@@ -1516,16 +1516,16 @@
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>22</v>
@@ -1540,16 +1540,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>22</v>
@@ -1564,16 +1564,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>22</v>
@@ -1585,19 +1585,19 @@
         <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>22</v>
@@ -1609,19 +1609,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>22</v>
@@ -1633,19 +1633,19 @@
         <v>15</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>22</v>
@@ -1657,19 +1657,19 @@
         <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>22</v>
@@ -1681,19 +1681,19 @@
         <v>17</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>22</v>
@@ -1705,19 +1705,19 @@
         <v>18</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="G28" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>22</v>
@@ -1730,7 +1730,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1764,22 +1764,22 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>22</v>
@@ -1788,22 +1788,22 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>22</v>
@@ -1836,22 +1836,22 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>22</v>
@@ -1860,22 +1860,22 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>22</v>
@@ -1884,22 +1884,22 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>22</v>
@@ -1908,22 +1908,22 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>22</v>
@@ -1932,22 +1932,22 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>22</v>
@@ -1956,22 +1956,22 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>22</v>
@@ -1980,22 +1980,22 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>22</v>
@@ -2008,7 +2008,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2045,19 +2045,19 @@
         <v>29</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>22</v>
@@ -2069,19 +2069,19 @@
         <v>30</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>22</v>
@@ -2093,19 +2093,19 @@
         <v>31</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>22</v>
@@ -2117,19 +2117,19 @@
         <v>32</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>22</v>
@@ -2141,19 +2141,19 @@
         <v>33</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>22</v>
@@ -2165,19 +2165,19 @@
         <v>34</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>22</v>
@@ -2198,10 +2198,10 @@
         <v>24</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>22</v>
@@ -2213,7 +2213,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>17</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>22</v>
@@ -2246,10 +2246,10 @@
         <v>25</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>22</v>
@@ -2270,10 +2270,10 @@
         <v>26</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>22</v>
@@ -2294,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>22</v>
@@ -2309,19 +2309,19 @@
         <v>40</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>22</v>
@@ -2333,19 +2333,19 @@
         <v>41</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>22</v>
@@ -2357,19 +2357,19 @@
         <v>42</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>22</v>
@@ -2381,19 +2381,19 @@
         <v>43</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>22</v>
@@ -2405,19 +2405,19 @@
         <v>44</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>22</v>
@@ -2429,19 +2429,19 @@
         <v>45</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>22</v>
@@ -2453,19 +2453,19 @@
         <v>46</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>22</v>
@@ -2477,19 +2477,19 @@
         <v>47</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>22</v>
@@ -2501,19 +2501,19 @@
         <v>48</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>22</v>
@@ -2525,19 +2525,19 @@
         <v>49</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>22</v>
@@ -2549,19 +2549,19 @@
         <v>50</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>22</v>
@@ -2573,25 +2573,25 @@
         <v>51</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="H65" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">

--- a/Test Cases Final/TC- 3 Forgot Password.xlsx
+++ b/Test Cases Final/TC- 3 Forgot Password.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BA409-0DA4-473D-91C8-01F1CFA5D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155F3E6D-F755-469F-9028-A0FCC244F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="133">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -72,9 +72,6 @@
   <si>
     <t>Charlesto Southern University
 Test Cases for Xecured Password Manager</t>
-  </si>
-  <si>
-    <t>No Registered Users</t>
   </si>
   <si>
     <t>Enter an invalid space character</t>
@@ -1112,7 +1109,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:L7"/>
+      <selection activeCell="D43" sqref="D43:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,14 +1216,14 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -1254,7 +1251,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1297,22 +1294,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1321,22 +1318,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1345,22 +1342,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1369,22 +1366,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -1393,22 +1390,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1417,22 +1414,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -1441,22 +1438,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -1465,22 +1462,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -1489,22 +1486,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -1513,22 +1510,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -1537,22 +1534,22 @@
         <v>11</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -1561,22 +1558,22 @@
         <v>12</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -1585,22 +1582,22 @@
         <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1609,22 +1606,22 @@
         <v>14</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -1633,22 +1630,22 @@
         <v>15</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -1657,22 +1654,22 @@
         <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="6"/>
     </row>
@@ -1681,22 +1678,22 @@
         <v>17</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>97</v>
-      </c>
       <c r="F27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -1705,22 +1702,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="F28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="G28" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="6"/>
     </row>
@@ -1730,7 +1727,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1764,241 +1761,241 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="F40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="6"/>
     </row>
@@ -2008,7 +2005,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2045,22 +2042,22 @@
         <v>29</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="6"/>
     </row>
@@ -2069,22 +2066,22 @@
         <v>30</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -2093,22 +2090,22 @@
         <v>31</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="6"/>
     </row>
@@ -2117,22 +2114,22 @@
         <v>32</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="6"/>
     </row>
@@ -2141,22 +2138,22 @@
         <v>33</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -2165,22 +2162,22 @@
         <v>34</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -2189,22 +2186,22 @@
         <v>35</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -2213,22 +2210,22 @@
         <v>36</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -2237,22 +2234,22 @@
         <v>37</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -2261,22 +2258,22 @@
         <v>38</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -2285,22 +2282,22 @@
         <v>39</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -2309,22 +2306,22 @@
         <v>40</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="F54" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -2333,22 +2330,22 @@
         <v>41</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -2357,22 +2354,22 @@
         <v>42</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="F56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -2381,22 +2378,22 @@
         <v>43</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -2405,22 +2402,22 @@
         <v>44</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -2429,22 +2426,22 @@
         <v>45</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -2453,22 +2450,22 @@
         <v>46</v>
       </c>
       <c r="C60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="F60" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -2477,22 +2474,22 @@
         <v>47</v>
       </c>
       <c r="C61" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="F61" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" s="6"/>
     </row>
@@ -2501,22 +2498,22 @@
         <v>48</v>
       </c>
       <c r="C62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F62" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" s="6"/>
     </row>
@@ -2525,22 +2522,22 @@
         <v>49</v>
       </c>
       <c r="C63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="F63" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" s="6"/>
     </row>
@@ -2549,22 +2546,22 @@
         <v>50</v>
       </c>
       <c r="C64" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="F64" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="6"/>
     </row>
@@ -2573,25 +2570,25 @@
         <v>51</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="G65" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G65" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
